--- a/data/case1/2/Q1_1.xlsx
+++ b/data/case1/2/Q1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.092453242651153289</v>
+        <v>0.098496255502688257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0077820994900328344</v>
+        <v>-0.0059999999513635771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999739901426</v>
+        <v>-0.0039999999608832937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999513358233</v>
+        <v>-0.0079999999273141498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999778089759</v>
+        <v>0.070455891250155389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999982125189</v>
+        <v>-0.0019999999611215458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999388842298</v>
+        <v>-0.0099999998975563997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999390836258</v>
+        <v>-0.0099999998957551739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999840623062</v>
+        <v>-0.0019999999587079209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999857081008</v>
+        <v>-0.0019999999583433237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999804344313</v>
+        <v>-0.0029999999504202179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999781470947</v>
+        <v>-0.003499999946503074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999816305305</v>
+        <v>-0.0034999999474845112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999585833592</v>
+        <v>-0.0079999999124380494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.040273204854906375</v>
+        <v>0.020196047175708998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999992688295</v>
+        <v>-0.0019999999607267505</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999921820333</v>
+        <v>-0.0019999999599980001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999811417553</v>
+        <v>-0.003999999943889776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0012842371421846188</v>
+        <v>-0.0039999999672732933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0035865379672319619</v>
+        <v>0.014873820281875894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999755959692</v>
+        <v>-0.0039999999677879927</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999753845827</v>
+        <v>-0.0039999999675472964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999667962314</v>
+        <v>-0.0049999999500904835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999881832764</v>
+        <v>-0.019999999825960124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999880190522</v>
+        <v>-0.019999999823443027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999979272971</v>
+        <v>-0.0024999999554751184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999791406324</v>
+        <v>-0.0024999999531871708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999814466207</v>
+        <v>-0.0019999999461024487</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999541039415</v>
+        <v>-0.0069999998986833845</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999666131121</v>
+        <v>-0.033796738400227344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999605308005</v>
+        <v>-0.0069999998912138039</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.075326197851563137</v>
+        <v>-0.0099999998668600654</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999788715712</v>
+        <v>-0.0039999999145337028</v>
       </c>
     </row>
   </sheetData>
